--- a/Data/EnsureEconomicStability.xlsx
+++ b/Data/EnsureEconomicStability.xlsx
@@ -1,78 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akunerth/Dropbox (University of Oregon)/Rapid Response Research (R3)/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEABD2E8-E21F-A74B-BBC8-037ADBD9EDE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4591C56-DFFB-7F4F-BD07-DD86C3917E92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" xr2:uid="{8A673D2B-23AC-4849-B85E-D6BED00A64B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Question Bank " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0" concurrentCalc="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t>Question</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
     <t>Occurrence</t>
   </si>
   <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Past</t>
+  </si>
+  <si>
+    <t>Current?</t>
+  </si>
+  <si>
+    <t>Answers</t>
+  </si>
+  <si>
     <t xml:space="preserve">To the best of your knowledge, which option best describes your gross (before taxes) household income from all sources, in 2019 (prior to the coronavirus (COVID-19) Pandemic)? 
-• Weekly [text entry] 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Weekly [text entry] 
 • Monthly – [text entry] 
 • Yearly – [text entry]  </t>
   </si>
   <si>
-    <t>Current</t>
-  </si>
-  <si>
     <t xml:space="preserve">How many people are being supported by your total household income? 
-• 0-20 </t>
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• 0-20 </t>
   </si>
   <si>
     <t xml:space="preserve">Who earns more money in your household? 
-• Myself  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Myself  
 • My partner or spouse 
 • About equal with my partner or spouse  
 • Other </t>
   </si>
   <si>
     <t xml:space="preserve">Has this changed since the coronavirus COVID-19 pandemic? (Ex. Did you make more money than your partner prior to the pandemic, but now you make less?)  
-• Yes  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes  
 • No 
 • Unsure 
 • Other </t>
   </si>
   <si>
     <t xml:space="preserve">Which of the following best describes your current employment status? 
-• Working full time  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Working full time  
 • Working part time  
 • Unemployed or laid off and seeking employment 
 • Unemployed or laid off, not seeking employment 
@@ -84,18 +97,17 @@
 • Other: [text entry] </t>
   </si>
   <si>
-    <t>Past</t>
-  </si>
-  <si>
-    <t>Which of the following best describes your current employment status? 
-• Working  
+    <t>• Working  
 • Unemployed or laid off  
 • Temporarily out of work or furloughed  
 • Other</t>
   </si>
   <si>
     <t xml:space="preserve">Please describe your current work environment 
-• Working from home, as usual 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Working from home, as usual 
 • Working from home, not as usual 
 • Employed and not working from home  
 • Employed and unable to work from home  
@@ -104,32 +116,32 @@
   </si>
   <si>
     <t xml:space="preserve">What was your employment status prior to the coronavirus (COVID-19) Pandemic? 
-• Working full time  
-• Working part time  
-• Unemployed or laid off and seeking employment 
-• Unemployed or laid off, not seeking employment 
-• Temporarily furloughed  
-• Hours reduced  
-• Keeping house or raising children full time  
-• Retired  
-• Full-time student  
-• Other: [text entry] </t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">Has your level of employment decreased due to the coronavirus (COVID-19) pandemic? 
-• Yes 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes 
 • No 
 • Not applicable  </t>
   </si>
   <si>
     <t xml:space="preserve">During the coronavirus (COVID-19) pandemic, are you considered an essential employee? 
-• Yes 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes 
 • No 
 • Unsure </t>
   </si>
   <si>
-    <t>If you are an essential employee, how many people are you regularly exposed to (i.e., work around) as a part of your job? 
-• None  
+    <t xml:space="preserve">If you are an essential employee, how many people are you regularly exposed to (i.e., work around) as a part of your job? 
+</t>
+  </si>
+  <si>
+    <t>• None  
 • 1 - 5 
 • 6 - 10 
 • 11 - 20  
@@ -138,7 +150,10 @@
   </si>
   <si>
     <t xml:space="preserve">If you are an essential employee, how many people are you regularly in close contact with as a part of your job? 
-• None  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• None  
 • 1 - 5 
 • 6 - 10 
 • 11 - 20  
@@ -147,19 +162,18 @@
   </si>
   <si>
     <t xml:space="preserve">Does your place of employment offer you paid sick leave? 
-• Yes 
-• No 
-• Unsure </t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">If yes, has your place of employment increased the amount of paid sick leave provided to you during the coronavirus (COVID-19) Pandemic? 
-• Yes 
-• No 
-• Unsure </t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">How likely is it that you would lose your job if you were required to take at least 2 weeks of sick leave? 
-• Very likely  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Very likely  
 • Likely 
 • Neutral/unsure 
 • Unlikely 
@@ -168,14 +182,20 @@
   </si>
   <si>
     <t xml:space="preserve">Are you receiving any sort of public or employment benefits? ex. Federal cash assistance programs such as the Temporary Assistance for Needy Families (TANF), Social Security Income (SSI). OR, Federal-in kind benefit programs such as Medicaid, Food Stamps and Housing. 
-• Yes 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes 
 • No 
 • Didn't Qualify 
 • Intend to apply </t>
   </si>
   <si>
     <t xml:space="preserve">What types of benefits are you receiving? 
-• Health / Medical  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Health / Medical  
 • Food 
 • Income (not including federal stimulus checks)  
 • Disability (not military)  
@@ -187,8 +207,7 @@
 • Other, please describe: [text entry] </t>
   </si>
   <si>
-    <t>What types of benefits are you receiving? 
-• Health or Medical Services (ex. Vaccine programs, counseling, STD testing etc.) 
+    <t>• Health or Medical Services (ex. Vaccine programs, counseling, STD testing etc.) 
 • Child Care Subsidy 
 • Housing 
 • Income (not including federal stimulus checks) 
@@ -201,11 +220,11 @@
 • Other, please describe:</t>
   </si>
   <si>
-    <t>Current?</t>
-  </si>
-  <si>
     <t xml:space="preserve">How much of your income prior to coronavirus (COVID-19) is now covered by unemployment benefits?  Ex. You previously made about $2,000 per month, and you now receive $1,000 from unemployment benefits, or approximately 50% 
-• 0% 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• 0% 
 • 10% 
 • 20% 
 • 30% 
@@ -220,55 +239,69 @@
   </si>
   <si>
     <t xml:space="preserve">Have you received a federal stimulus check this year? (Also known as an economic impact payment) 
-• Yes 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes 
 • No 
 • Unsure 
 • Other [text entry] </t>
   </si>
   <si>
     <t xml:space="preserve">If no, do you expect to receive a federal stimulus check? 
-• Yes 
-• No 
-• Unsure 
-• Other [text entry] </t>
+</t>
   </si>
   <si>
     <t xml:space="preserve">If no, why do you not expect to receive a federal stimulus check? 
-• I do not meet the eligibility requirements  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• I do not meet the eligibility requirements  
 • I do not know how to get the federal stimulus check  
 • I still need to take action in order to receive the federal stimulus check (i.e., submit my banking information, file taxes, etc.)   
 • Other: [text entry] </t>
   </si>
   <si>
     <t xml:space="preserve">Which of the following best describes what has happened to your family income during the coronavirus (COVID-19) pandemic? (Ex. increased, decreased, stayed the same) 
-• Has increased very much 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Has increased very much 
 • Has increased somewhat 
 • Has stayed the same 
 • Has decreased somewhat 
 • Has decreased very much </t>
   </si>
   <si>
-    <t xml:space="preserve">Which of the following best describes what has happened to your family income during the coronavirus (COVID-19) pandemic? (Ex. increased, decreased, stayed the same) 
-• Has increased  
+    <t xml:space="preserve">• Has increased  
 • Has stayed the same 
 • Has decreased </t>
   </si>
   <si>
     <t xml:space="preserve">Which of the following best describes your family financially at this time: 
-• No problems 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• No problems 
 • Minor Problems  
 • Major Problems  
 • Extreme Problems </t>
   </si>
   <si>
     <t xml:space="preserve">Are you covered by any kind of health insurance or some other kind of health care plan? 
-• Yes  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes  
 • No 
 • I don’t know </t>
   </si>
   <si>
     <t xml:space="preserve">What type of health insurance or health care coverage do you have? 
-• Private Health Insurance 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Private Health Insurance 
 • Medicare 
 • Medigap 
 • Medicaid 
@@ -282,13 +315,19 @@
   </si>
   <si>
     <t xml:space="preserve">Is your child(ren) that are between 0 and 5 years of age covered by any kind of health insurance or some other kind of health care plan? 
-• Yes 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Yes 
 • No 
 • I don’t know </t>
   </si>
   <si>
     <t xml:space="preserve">What type of health insurance or health care coverage does your child have?  
-• Private Health Insurance 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Private Health Insurance 
 • Medicare 
 • Medigap 
 • Medicaid 
@@ -302,19 +341,21 @@
 • Not applicable </t>
   </si>
   <si>
-    <t xml:space="preserve">Research shows that there could be a growing class divide in the United States, described in broad categories below. Which of these categories do you most closely identify with?_x000D_
-• Remotes_x000D_
-These are the privileged professional, managerial, and technical workers still at their jobs, usually remotely and usually for the same pay. _x000D_
-_x000D_
-• Essentials_x000D_
-These range from medical staff to workers in the food-supply chain, the police, and truck drivers; many are putting their lives at risk with limited physical or economic protection. _x000D_
-_x000D_
-• Unpaid_x000D_
-These are the growing numbers of the unemployed. _x000D_
-_x000D_
-• Forgotten_x000D_
-These are the homeless, migrant workers, Native Americans, the disabled, the elderly, and the imprisoned._x000D_
-</t>
+    <t xml:space="preserve">Research shows that there could be a growing class divide in the United States, described in broad categories below. Which of these categories do you most closely identify with?
+</t>
+  </si>
+  <si>
+    <t>• Remotes
+These are the privileged professional, managerial, and technical workers still at their jobs, usually remotely and usually for the same pay. 
+• Essentials
+These range from medical staff to workers in the food-supply chain, the police, and truck drivers; many are putting their lives at risk with limited physical or economic protection. 
+• Unpaid
+These are the growing numbers of the unemployed. 
+• Forgotten
+These are the homeless, migrant workers, Native Americans, the disabled, the elderly, and the imprisoned.</t>
+  </si>
+  <si>
+    <t>Proposed</t>
   </si>
 </sst>
 </file>
@@ -682,14 +723,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2689D1A7-E07D-A54D-BF8D-68ACF4A3D5C5}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="75" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="1" max="2" width="75" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -698,276 +738,340 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="102">
+    </row>
+    <row r="2" spans="1:3" ht="68">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="34">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="68">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="68">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="170">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="33.950000000000003">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="84.95">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="102">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="186.95">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="84.95">
+    </row>
+    <row r="7" spans="1:3" ht="68">
       <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="119.1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="102">
       <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="186.95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="170">
       <c r="A9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="68.099999999999994">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="51">
       <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="69" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="135.94999999999999">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="102">
       <c r="A12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="135.94999999999999">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="102">
       <c r="A13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="68.099999999999994">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="51">
       <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="51">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="102">
+      <c r="A16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="85">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="170">
+      <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="187">
+      <c r="A19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="84.95">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="135.94999999999999">
-      <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="135.94999999999999">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="186.95">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="204">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="255">
+    <row r="20" spans="1:3" ht="204">
       <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="68">
       <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="84.95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="68">
       <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="85">
       <c r="A23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="C23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="119.1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="85">
       <c r="A24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="C24" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="84.95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="51">
       <c r="A25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C25" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="84.95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="68">
       <c r="A26" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="1"/>
+        <v>47</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="68.099999999999994">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="51">
       <c r="A27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C27" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="187">
       <c r="A28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="C28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="84.95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="51">
       <c r="A29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="C29" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="221.1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="204">
       <c r="A30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="1"/>
+        <v>55</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="C30" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="283.5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="255">
       <c r="A31" s="3" t="s">
-        <v>35</v>
+        <v>57</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
